--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -647,7 +647,7 @@
       <c r="Q2" s="3" t="inlineStr"/>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>2022-01-18 14-31-36</t>
+          <t>2022-01-18 14-38-26</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       <c r="Q3" s="0" t="inlineStr"/>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>2022-01-18 14-31-36</t>
+          <t>2022-01-18 14-38-27</t>
         </is>
       </c>
     </row>
@@ -794,13 +794,13 @@
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>模块:商城, 标题:收藏接口, 断言类型是:code, 响应msg:收藏成功</t>
+          <t>模块:商城, 标题:收藏接口, 断言类型是:code, 响应msg:取消成功</t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr"/>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>2022-01-18 14-31-36</t>
+          <t>2022-01-18 14-38-27</t>
         </is>
       </c>
     </row>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -647,7 +647,7 @@
       <c r="Q2" s="3" t="inlineStr"/>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>2022-01-18 14-38-26</t>
+          <t>2022-09-07 21-51-47</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       <c r="Q3" s="0" t="inlineStr"/>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>2022-01-18 14-38-27</t>
+          <t>2022-09-07 21-51-48</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="Q4" s="3" t="inlineStr"/>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>2022-01-18 14-38-27</t>
+          <t>2022-09-07 21-51-48</t>
         </is>
       </c>
     </row>
